--- a/config/excel/Scene.xlsx
+++ b/config/excel/Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CE051E-AA31-4F0D-AAD5-809D98503599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AE3353-9350-4AD4-A881-DEBAC8A3838A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>CunZhuang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗区域半径</t>
+  </si>
+  <si>
+    <t>战斗区域矩形部分的长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配0，为圆
+&gt;0，胶囊体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗区域矩形长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -205,11 +232,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,13 +334,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -291,12 +433,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:E23" totalsRowShown="0">
-  <autoFilter ref="C1:E23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:G23" totalsRowShown="0">
+  <autoFilter ref="C1:G23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="场景id"/>
-    <tableColumn id="34" xr3:uid="{5B835508-691F-4D3D-95A6-C2090ACB8712}" name="场景资源" dataDxfId="0"/>
+    <tableColumn id="34" xr3:uid="{5B835508-691F-4D3D-95A6-C2090ACB8712}" name="场景资源" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="场景类型"/>
+    <tableColumn id="3" xr3:uid="{57D8F5EA-FC92-4266-B10B-9433199703AF}" name="战斗区域半径" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DA76E587-9DB7-42B7-B030-6642BF63B4F7}" name="战斗区域矩形部分的长度" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,7 +724,7 @@
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,8 +740,14 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -607,8 +757,12 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
@@ -621,8 +775,14 @@
       <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
@@ -635,16 +795,24 @@
       <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
@@ -657,8 +825,14 @@
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="F6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="7">
         <v>1</v>
@@ -667,6 +841,12 @@
         <v>17</v>
       </c>
       <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>10</v>
+      </c>
+      <c r="G7" s="21">
         <v>0</v>
       </c>
     </row>
